--- a/SAMUEL KIMANI.xlsx
+++ b/SAMUEL KIMANI.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ASSETFLOW-PC\Desktop\FLORENCE\CLIENTS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="360" windowWidth="17955" windowHeight="11535"/>
+    <workbookView xWindow="720" yWindow="360" windowWidth="17955" windowHeight="11535" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="AUGUST 21" sheetId="1" r:id="rId1"/>
@@ -21,12 +16,12 @@
   <externalReferences>
     <externalReference r:id="rId6"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="82">
   <si>
     <t xml:space="preserve">RENT STATEMENT </t>
   </si>
@@ -257,12 +252,27 @@
   </si>
   <si>
     <t>FOR THE MONTH OF DECEMBER 2021</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>PAID ON 10/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAID ON 10/12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                            </t>
+  </si>
+  <si>
+    <t>DEC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.00;\-#,##0.00"/>
@@ -587,7 +597,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -622,7 +632,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -833,7 +843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
@@ -3487,7 +3497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
@@ -4823,8 +4833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView topLeftCell="H16" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6003,22 +6013,14 @@
       <c r="V28" s="4"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B29" s="26" t="s">
-        <v>75</v>
-      </c>
+      <c r="B29" s="26"/>
       <c r="C29" s="26"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="4">
-        <v>2300</v>
-      </c>
+      <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="26" t="s">
-        <v>75</v>
-      </c>
+      <c r="G29" s="26"/>
       <c r="H29" s="26"/>
-      <c r="I29" s="4">
-        <v>2300</v>
-      </c>
+      <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="N29" s="26" t="s">
         <v>73</v>
@@ -6078,11 +6080,11 @@
       </c>
       <c r="E31" s="23">
         <f>SUM(E25:E30)</f>
-        <v>34700</v>
+        <v>32400</v>
       </c>
       <c r="F31" s="23">
         <f>D31-E31</f>
-        <v>-2300</v>
+        <v>0</v>
       </c>
       <c r="G31" s="19" t="s">
         <v>18</v>
@@ -6093,11 +6095,11 @@
       </c>
       <c r="I31" s="23">
         <f>SUM(I25:I30)</f>
-        <v>34700</v>
+        <v>32400</v>
       </c>
       <c r="J31" s="23">
         <f>H31-I31</f>
-        <v>-3800</v>
+        <v>-1500</v>
       </c>
       <c r="L31" s="16"/>
       <c r="N31" s="19" t="s">
@@ -6197,10 +6199,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U37"/>
+  <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6334,10 +6336,12 @@
         <f>B5+C5+D5</f>
         <v>3500</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3">
+        <v>2000</v>
+      </c>
       <c r="G5" s="3">
         <f>E5-F5</f>
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="H5" s="3">
         <v>150</v>
@@ -6363,10 +6367,12 @@
         <f>N5+O5+P5</f>
         <v>2500</v>
       </c>
-      <c r="R5" s="3"/>
+      <c r="R5" s="3">
+        <v>2500</v>
+      </c>
       <c r="S5" s="3">
         <f>Q5-R5</f>
-        <v>2500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -6385,13 +6391,15 @@
         <f t="shared" ref="E6:E14" si="0">B6+C6+D6</f>
         <v>3500</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3">
+        <v>3500</v>
+      </c>
       <c r="G6" s="3">
         <f>E6-F6</f>
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="I6" s="3">
         <v>50</v>
@@ -6414,10 +6422,12 @@
         <f t="shared" ref="Q6:Q9" si="1">N6+O6+P6</f>
         <v>2500</v>
       </c>
-      <c r="R6" s="3"/>
+      <c r="R6" s="3">
+        <v>2500</v>
+      </c>
       <c r="S6" s="3">
         <f>Q6-R6</f>
-        <v>2500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -6444,7 +6454,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="3">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="I7" s="3">
         <v>50</v>
@@ -6453,7 +6463,7 @@
         <v>39</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="30">
@@ -6489,10 +6499,12 @@
         <f t="shared" si="0"/>
         <v>3500</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3">
+        <v>3500</v>
+      </c>
       <c r="G8" s="3">
         <f>E8-F8</f>
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>450</v>
@@ -6538,10 +6550,12 @@
         <f t="shared" si="0"/>
         <v>3500</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3">
+        <v>3500</v>
+      </c>
       <c r="G9" s="3">
-        <f t="shared" ref="G9:G14" si="2">E9-F9</f>
-        <v>3500</v>
+        <f t="shared" ref="G9:G13" si="2">E9-F9</f>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>450</v>
@@ -6636,13 +6650,15 @@
         <f t="shared" si="0"/>
         <v>3500</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3">
+        <v>3500</v>
+      </c>
       <c r="G11" s="3">
         <f t="shared" si="2"/>
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="H11" s="3">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="I11" s="3">
         <v>50</v>
@@ -6663,10 +6679,12 @@
         <f t="shared" ref="Q11:Q14" si="4">N11+O11+P11</f>
         <v>6000</v>
       </c>
-      <c r="R11" s="3"/>
+      <c r="R11" s="3">
+        <v>3000</v>
+      </c>
       <c r="S11" s="3">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -6685,13 +6703,15 @@
         <f t="shared" si="0"/>
         <v>3500</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3">
+        <v>1100</v>
+      </c>
       <c r="G12" s="3">
         <f t="shared" si="2"/>
-        <v>3500</v>
+        <v>2400</v>
       </c>
       <c r="H12" s="3">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="I12" s="3">
         <v>50</v>
@@ -6730,13 +6750,15 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3">
+        <v>3000</v>
+      </c>
       <c r="G13" s="3">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I13" s="3">
         <v>50</v>
@@ -6779,10 +6801,12 @@
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3">
-        <f t="shared" si="2"/>
-        <v>6000</v>
+      <c r="F14" s="3">
+        <f>4000</f>
+        <v>4000</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="H14" s="3">
         <v>600</v>
@@ -6808,10 +6832,12 @@
         <f t="shared" si="4"/>
         <v>2500</v>
       </c>
-      <c r="R14" s="3"/>
+      <c r="R14" s="3">
+        <v>2500</v>
+      </c>
       <c r="S14" s="3">
         <f t="shared" si="3"/>
-        <v>2500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -6836,15 +6862,15 @@
       </c>
       <c r="F15" s="2">
         <f t="shared" si="5"/>
-        <v>3500</v>
+        <v>27600</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="5"/>
-        <v>30000</v>
+        <v>3900</v>
       </c>
       <c r="H15" s="3">
         <f>SUM(H5:H14)</f>
-        <v>3230</v>
+        <v>2550</v>
       </c>
       <c r="I15" s="6">
         <f>SUM(I5:I14)</f>
@@ -6872,11 +6898,11 @@
       </c>
       <c r="R15" s="2">
         <f t="shared" si="6"/>
-        <v>5000</v>
+        <v>15500</v>
       </c>
       <c r="S15" s="2">
         <f t="shared" si="6"/>
-        <v>17550</v>
+        <v>7050</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -7001,7 +7027,7 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="20">
@@ -7011,17 +7037,17 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G20" s="20">
         <f>F15</f>
-        <v>3500</v>
+        <v>27600</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="16"/>
       <c r="M20" s="4" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="N20" s="4"/>
       <c r="O20" s="20">
@@ -7031,11 +7057,11 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="S20" s="20">
         <f>R15</f>
-        <v>5000</v>
+        <v>15500</v>
       </c>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
@@ -7047,7 +7073,7 @@
       <c r="B21" s="4"/>
       <c r="C21" s="20">
         <f>'NOVEMBER 21'!F31</f>
-        <v>-2300</v>
+        <v>0</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -7056,7 +7082,7 @@
       </c>
       <c r="G21" s="20">
         <f>'NOVEMBER 21'!J31</f>
-        <v>-3800</v>
+        <v>-1500</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -7086,14 +7112,14 @@
       </c>
       <c r="C22">
         <f>H15</f>
-        <v>3230</v>
+        <v>2550</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>54</v>
       </c>
       <c r="G22">
         <f>H15</f>
-        <v>3230</v>
+        <v>2550</v>
       </c>
       <c r="H22" t="str">
         <f>M15</f>
@@ -7101,21 +7127,13 @@
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="16"/>
-      <c r="M22" s="27" t="s">
-        <v>72</v>
-      </c>
+      <c r="M22" s="27"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="3">
-        <v>450</v>
-      </c>
+      <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
-      <c r="R22" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="S22" s="3">
-        <v>450</v>
-      </c>
+      <c r="R22" s="27"/>
+      <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="4"/>
     </row>
@@ -7218,34 +7236,46 @@
       <c r="G25" s="23"/>
       <c r="H25" s="19"/>
       <c r="I25" s="4"/>
-      <c r="M25" s="24"/>
+      <c r="M25" s="24" t="s">
+        <v>78</v>
+      </c>
       <c r="N25" s="22"/>
       <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
+      <c r="P25" s="4">
+        <v>9000</v>
+      </c>
       <c r="Q25" s="4"/>
-      <c r="R25" s="24"/>
+      <c r="R25" s="24" t="s">
+        <v>78</v>
+      </c>
       <c r="S25" s="22"/>
-      <c r="T25" s="4"/>
+      <c r="T25" s="4">
+        <v>9000</v>
+      </c>
       <c r="U25" s="4"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
+      <c r="A26" s="25" t="s">
+        <v>79</v>
+      </c>
       <c r="B26" s="25"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="D26" s="4">
+        <v>28800</v>
+      </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="25"/>
+      <c r="F26" s="25" t="s">
+        <v>79</v>
+      </c>
       <c r="G26" s="25"/>
-      <c r="H26" s="4"/>
+      <c r="H26" s="4">
+        <v>28800</v>
+      </c>
       <c r="I26" s="4"/>
-      <c r="M26" s="25" t="s">
-        <v>66</v>
-      </c>
+      <c r="M26" s="25"/>
       <c r="N26" s="25"/>
       <c r="O26" s="4"/>
-      <c r="P26" s="4">
-        <v>2500</v>
-      </c>
+      <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="25"/>
       <c r="S26" s="25"/>
@@ -7341,30 +7371,30 @@
       <c r="B31" s="19"/>
       <c r="C31" s="23">
         <f>C20+C21+C22+C23-D24</f>
-        <v>30180</v>
+        <v>31800</v>
       </c>
       <c r="D31" s="23">
         <f>SUM(D25:D30)</f>
-        <v>0</v>
+        <v>28800</v>
       </c>
       <c r="E31" s="23">
         <f>C31-D31</f>
-        <v>30180</v>
+        <v>3000</v>
       </c>
       <c r="F31" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="23">
         <f>G20+G21+G22+G23-H24</f>
-        <v>180</v>
+        <v>25900</v>
       </c>
       <c r="H31" s="23">
         <f>SUM(H25:H30)</f>
-        <v>0</v>
+        <v>28800</v>
       </c>
       <c r="I31" s="23">
         <f>G31-H31</f>
-        <v>180</v>
+        <v>-2900</v>
       </c>
       <c r="K31" s="16"/>
       <c r="M31" s="19" t="s">
@@ -7373,30 +7403,30 @@
       <c r="N31" s="19"/>
       <c r="O31" s="23">
         <f>O20+O21+O22-P23</f>
-        <v>9450</v>
+        <v>9000</v>
       </c>
       <c r="P31" s="23">
         <f>SUM(P25:P30)</f>
-        <v>2500</v>
+        <v>9000</v>
       </c>
       <c r="Q31" s="23">
         <f>O31-P31</f>
-        <v>6950</v>
+        <v>0</v>
       </c>
       <c r="R31" s="19" t="s">
         <v>18</v>
       </c>
       <c r="S31" s="23">
         <f>S20+S21+S22-T23</f>
-        <v>-4600</v>
+        <v>5450</v>
       </c>
       <c r="T31" s="23">
         <f>SUM(T25:T30)</f>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="U31" s="23">
         <f>S31-T31</f>
-        <v>-4600</v>
+        <v>-3550</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -7445,10 +7475,17 @@
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I36" s="16"/>
       <c r="J36" s="16"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H37" s="16"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I38" s="16"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q40" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
